--- a/biology/Zoologie/Atrax_sutherlandi/Atrax_sutherlandi.xlsx
+++ b/biology/Zoologie/Atrax_sutherlandi/Atrax_sutherlandi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atrax sutherlandi est une espèce d'araignées mygalomorphes de la famille des Atracidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atrax sutherlandi est une espèce d'araignées mygalomorphes de la famille des Atracidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans le Sud-Est de la Nouvelle-Galles du Sud et dans l'Est du Victoria[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans le Sud-Est de la Nouvelle-Galles du Sud et dans l'Est du Victoria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 7,56 mm de long sur 6,59 mm et l'abdomen 6,93 mm de long sur 5,76 mm et la carapace de la femelle paratype mesure 10,20 mm de long sur 8,16 mm et l'abdomen 10,88 mm de long sur 9,18 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 7,56 mm de long sur 6,59 mm et l'abdomen 6,93 mm de long sur 5,76 mm et la carapace de la femelle paratype mesure 10,20 mm de long sur 8,16 mm et l'abdomen 10,88 mm de long sur 9,18 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Struan Sutherland[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Struan Sutherland.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 2010 : A revision of the Australian funnel-web spiders (Hexathelidae: Atracinae). Records of the Australian Museum, vol. 62, p. 285-392 (texte intégral).</t>
         </is>
